--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Klimin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\29443722\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>X</t>
   </si>
@@ -57,6 +57,33 @@
   </si>
   <si>
     <t>A-&gt;B</t>
+  </si>
+  <si>
+    <t>(nY/\(nX/\nZ)) -&gt;(n(Z/\nX)\/Y)</t>
+  </si>
+  <si>
+    <t>a0=1</t>
+  </si>
+  <si>
+    <t>a3 + a0=1</t>
+  </si>
+  <si>
+    <t>a2 + a0=1</t>
+  </si>
+  <si>
+    <t>a1 + a0= 1</t>
+  </si>
+  <si>
+    <t>a1 + a3 + a13 + a0=1</t>
+  </si>
+  <si>
+    <t>a1 + a2 + a12+ a0=1</t>
+  </si>
+  <si>
+    <t>a123 + a 12 + a13 + a 23 + a 1 + a2 + a3 + a0=1</t>
+  </si>
+  <si>
+    <t>a2 + a3 + a23 + a0=1</t>
   </si>
 </sst>
 </file>
@@ -378,19 +405,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="18.28515625" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="12" max="12" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -424,8 +452,11 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -467,8 +498,11 @@
         <f>OR(NOT(H2),J2)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -510,8 +544,11 @@
         <f t="shared" ref="K3:K9" si="7">OR(NOT(H3),J3)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -553,8 +590,11 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -596,8 +636,11 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -639,8 +682,11 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -682,8 +728,11 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -725,8 +774,11 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -766,6 +818,14 @@
       </c>
       <c r="K9" t="b">
         <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L11">
         <v>1</v>
       </c>
     </row>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -59,9 +59,6 @@
     <t>A-&gt;B</t>
   </si>
   <si>
-    <t>(nY/\(nX/\nZ)) -&gt;(n(Z/\nX)\/Y)</t>
-  </si>
-  <si>
     <t>a0=1</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>a2 + a3 + a23 + a0=1</t>
+  </si>
+  <si>
+    <t>(nY/\(nX/\nZ)) -&gt;(n(Z/\nX)\/Y)=1</t>
   </si>
 </sst>
 </file>
@@ -405,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,7 +453,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -499,7 +499,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -591,7 +591,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -637,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -683,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -821,12 +821,7 @@
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L11">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
